--- a/FamTec/FamTec/FamTec/Server/ExcelForm/사용자정보(양식).xlsx
+++ b/FamTec/FamTec/FamTec/Server/ExcelForm/사용자정보(양식).xlsx
@@ -43,7 +43,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -54,9 +54,10 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>아이디</t>
     </r>
@@ -67,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -97,7 +98,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -106,9 +115,8 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -145,23 +153,21 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -169,23 +175,23 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -194,13 +200,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -516,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AS19" sqref="AS19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,354 +534,355 @@
     <col min="46" max="46" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:66" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
     </row>
     <row r="2" spans="1:66" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
-      <c r="BF2" s="2"/>
-      <c r="BG2" s="2"/>
-      <c r="BH2" s="2"/>
-      <c r="BI2" s="2"/>
-      <c r="BJ2" s="2"/>
-      <c r="BK2" s="2"/>
-      <c r="BL2" s="2"/>
-      <c r="BM2" s="2"/>
-      <c r="BN2" s="2"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2"/>
-      <c r="BH3" s="2"/>
-      <c r="BI3" s="2"/>
-      <c r="BJ3" s="2"/>
-      <c r="BK3" s="2"/>
-      <c r="BL3" s="2"/>
-      <c r="BM3" s="2"/>
-      <c r="BN3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2"/>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="2"/>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="2"/>
-      <c r="BF4" s="2"/>
-      <c r="BG4" s="2"/>
-      <c r="BH4" s="2"/>
-      <c r="BI4" s="2"/>
-      <c r="BJ4" s="2"/>
-      <c r="BK4" s="2"/>
-      <c r="BL4" s="2"/>
-      <c r="BM4" s="2"/>
-      <c r="BN4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2"/>
-      <c r="AY5" s="2"/>
-      <c r="AZ5" s="2"/>
-      <c r="BA5" s="2"/>
-      <c r="BB5" s="2"/>
-      <c r="BC5" s="2"/>
-      <c r="BD5" s="2"/>
-      <c r="BE5" s="2"/>
-      <c r="BF5" s="2"/>
-      <c r="BG5" s="2"/>
-      <c r="BH5" s="2"/>
-      <c r="BI5" s="2"/>
-      <c r="BJ5" s="2"/>
-      <c r="BK5" s="2"/>
-      <c r="BL5" s="2"/>
-      <c r="BM5" s="2"/>
-      <c r="BN5" s="2"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
-      <c r="AS6" s="2"/>
-      <c r="AT6" s="2"/>
-      <c r="AU6" s="2"/>
-      <c r="AV6" s="2"/>
-      <c r="AW6" s="2"/>
-      <c r="AX6" s="2"/>
-      <c r="AY6" s="2"/>
-      <c r="AZ6" s="2"/>
-      <c r="BA6" s="2"/>
-      <c r="BB6" s="2"/>
-      <c r="BC6" s="2"/>
-      <c r="BD6" s="2"/>
-      <c r="BE6" s="2"/>
-      <c r="BF6" s="2"/>
-      <c r="BG6" s="2"/>
-      <c r="BH6" s="2"/>
-      <c r="BI6" s="2"/>
-      <c r="BJ6" s="2"/>
-      <c r="BK6" s="2"/>
-      <c r="BL6" s="2"/>
-      <c r="BM6" s="2"/>
-      <c r="BN6" s="2"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="1"/>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="1"/>
+      <c r="BM6" s="1"/>
+      <c r="BN6" s="1"/>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
-      <c r="AT7" s="2"/>
-      <c r="AU7" s="2"/>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="2"/>
-      <c r="AY7" s="2"/>
-      <c r="AZ7" s="2"/>
-      <c r="BA7" s="2"/>
-      <c r="BB7" s="2"/>
-      <c r="BC7" s="2"/>
-      <c r="BD7" s="2"/>
-      <c r="BE7" s="2"/>
-      <c r="BF7" s="2"/>
-      <c r="BG7" s="2"/>
-      <c r="BH7" s="2"/>
-      <c r="BI7" s="2"/>
-      <c r="BJ7" s="2"/>
-      <c r="BK7" s="2"/>
-      <c r="BL7" s="2"/>
-      <c r="BM7" s="2"/>
-      <c r="BN7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="AR8" s="2"/>
-      <c r="AS8" s="2"/>
-      <c r="AT8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2"/>
-      <c r="AT9" s="2"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
